--- a/Verkehrssimulation/doc/KW39/Haupt- und Nebenziele.xlsx
+++ b/Verkehrssimulation/doc/KW39/Haupt- und Nebenziele.xlsx
@@ -132,9 +132,6 @@
     <t>Wenige Fahrzeuge und hoher Trödel-Faktor. Einige Raser</t>
   </si>
   <si>
-    <t>Tiefere Höchstgeschwindikgeit. Hoher Trödel-Faktor</t>
-  </si>
-  <si>
     <t>Läuft flüssig</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Die Fahrweise jedes Fahrzeugs kann abgerufen werden (z.B. Trödler oder Raser)</t>
+  </si>
+  <si>
+    <t>Tiefere Höchstgeschwindikgeit und hoher Trödel-Faktor</t>
   </si>
 </sst>
 </file>
@@ -315,6 +315,66 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3103880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>345440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4259580</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="ttp://upload.wikimedia.org/wikipedia/commons/thumb/b/b0/AK-Detail.jpg/220px-AK-Detail.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7452360" y="12669520"/>
+          <a:ext cx="1155700" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,11 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -733,10 +793,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -817,10 +877,10 @@
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -856,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -883,28 +943,28 @@
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -913,25 +973,25 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -941,71 +1001,71 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1074,7 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
